--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/UserAgencySelection.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/UserAgencySelection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C49351-6CC0-45B2-8F43-5CB4B7FB91C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BF4871-8EA4-4E15-9571-595BBF0C968E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Keyword</t>
   </si>
@@ -98,13 +98,16 @@
   </si>
   <si>
     <t xml:space="preserve"> J02 - J02                                          </t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +119,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,10 +562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91945AB-33E2-460F-AED5-3F0527A961E2}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,7 +608,19 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/UserAgencySelection.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/UserAgencySelection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BF4871-8EA4-4E15-9571-595BBF0C968E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9879C09F-0377-4986-BB9E-1C1E7957C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="880" windowWidth="18780" windowHeight="9920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -97,10 +97,10 @@
     <t>getData=AgencyClass</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J02                                          </t>
-  </si>
-  <si>
     <t>05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 - STATE HIGHWAY ADMINISTRATION                       </t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>18</v>
@@ -613,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
